--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Documents\20172\Tutoriales Web\Grafo LoL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Documents\20172\Tutoriales Web\Grafo LoL\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="161">
   <si>
     <t>Champion</t>
   </si>
@@ -490,13 +490,31 @@
   </si>
   <si>
     <t>Zilean</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,19 +522,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -531,10 +551,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,7 +853,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
@@ -840,7 +861,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -848,7 +869,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -856,7 +877,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
@@ -864,7 +885,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -872,7 +893,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
@@ -880,7 +901,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -888,7 +909,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -896,7 +917,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
@@ -904,7 +925,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
@@ -912,7 +933,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B12" t="s">
@@ -920,7 +941,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
@@ -928,7 +949,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
@@ -936,7 +957,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
@@ -944,7 +965,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B16" t="s">
@@ -952,7 +973,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">
@@ -960,7 +981,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B18" t="s">
@@ -968,7 +989,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B19" t="s">
@@ -976,7 +997,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
@@ -984,7 +1005,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B21" t="s">
@@ -992,7 +1013,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
@@ -1000,7 +1021,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B23" t="s">
@@ -1008,7 +1029,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B24" t="s">
@@ -1016,7 +1037,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B25" t="s">
@@ -1024,7 +1045,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B26" t="s">
@@ -1032,7 +1053,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B27" t="s">
@@ -1040,7 +1061,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B28" t="s">
@@ -1048,7 +1069,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B29" t="s">
@@ -1056,7 +1077,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B30" t="s">
@@ -1064,7 +1085,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B31" t="s">
@@ -1072,7 +1093,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B32" t="s">
@@ -1080,7 +1101,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B33" t="s">
@@ -1088,7 +1109,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B34" t="s">
@@ -1096,7 +1117,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B35" t="s">
@@ -1104,7 +1125,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B36" t="s">
@@ -1112,7 +1133,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B37" t="s">
@@ -1120,7 +1141,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B38" t="s">
@@ -1128,7 +1149,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B39" t="s">
@@ -1136,7 +1157,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B40" t="s">
@@ -1144,7 +1165,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B41" t="s">
@@ -1152,7 +1173,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B42" t="s">
@@ -1160,7 +1181,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B43" t="s">
@@ -1168,7 +1189,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B44" t="s">
@@ -1176,7 +1197,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B45" t="s">
@@ -1184,7 +1205,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
@@ -1192,7 +1213,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
@@ -1200,7 +1221,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
@@ -1208,7 +1229,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B49" t="s">
@@ -1216,7 +1237,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B50" t="s">
@@ -1224,7 +1245,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B51" t="s">
@@ -1232,7 +1253,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B52" t="s">
@@ -1240,7 +1261,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B53" t="s">
@@ -1248,7 +1269,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B54" t="s">
@@ -1256,7 +1277,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B55" t="s">
@@ -1264,7 +1285,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B56" t="s">
@@ -1272,7 +1293,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B57" t="s">
@@ -1280,7 +1301,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B58" t="s">
@@ -1288,7 +1309,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B59" t="s">
@@ -1296,7 +1317,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
@@ -1304,7 +1325,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B61" t="s">
@@ -1312,7 +1333,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B62" t="s">
@@ -1320,7 +1341,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B63" t="s">
@@ -1328,7 +1349,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B64" t="s">
@@ -1336,7 +1357,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B65" t="s">
@@ -1344,7 +1365,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B66" t="s">
@@ -1352,7 +1373,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B67" t="s">
@@ -1360,7 +1381,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B68" t="s">
@@ -1368,16 +1389,16 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B69" t="s">
         <v>56</v>
       </c>
-      <c r="H69" s="2"/>
+      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B70" t="s">
@@ -1385,7 +1406,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B71" t="s">
@@ -1393,7 +1414,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B72" t="s">
@@ -1401,7 +1422,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B73" t="s">
@@ -1409,7 +1430,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B74" t="s">
@@ -1417,7 +1438,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B75" t="s">
@@ -1425,7 +1446,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B76" t="s">
@@ -1433,7 +1454,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B77" t="s">
@@ -1441,7 +1462,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B78" t="s">
@@ -1449,7 +1470,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
@@ -1457,7 +1478,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B80" t="s">
@@ -1465,7 +1486,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B81" t="s">
@@ -1473,7 +1494,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B82" t="s">
@@ -1481,7 +1502,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B83" t="s">
@@ -1489,7 +1510,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B84" t="s">
@@ -1497,7 +1518,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B85" t="s">
@@ -1505,7 +1526,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B86" t="s">
@@ -1513,7 +1534,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B87" t="s">
@@ -1521,7 +1542,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B88" t="s">
@@ -1529,7 +1550,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B89" t="s">
@@ -1537,7 +1558,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B90" t="s">
@@ -1545,7 +1566,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B91" t="s">
@@ -1553,7 +1574,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B92" t="s">
@@ -1561,7 +1582,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B93" t="s">
@@ -1569,7 +1590,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B94" t="s">
@@ -1577,7 +1598,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B95" t="s">
@@ -1585,7 +1606,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B96" t="s">
@@ -1593,7 +1614,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
@@ -1601,7 +1622,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B98" t="s">
@@ -1609,7 +1630,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B99" t="s">
@@ -1617,7 +1638,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B100" t="s">
@@ -1625,7 +1646,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B101" t="s">
@@ -1633,7 +1654,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B102" t="s">
@@ -1641,7 +1662,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B103" t="s">
@@ -1649,7 +1670,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B104" t="s">
@@ -1657,7 +1678,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B105" t="s">
@@ -1665,7 +1686,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B106" t="s">
@@ -1673,7 +1694,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B107" t="s">
@@ -1681,7 +1702,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B108" t="s">
@@ -1689,7 +1710,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B109" t="s">
@@ -1697,7 +1718,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B110" t="s">
@@ -1705,7 +1726,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B111" t="s">
@@ -1713,7 +1734,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B112" t="s">
@@ -1721,7 +1742,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B113" t="s">
@@ -1729,7 +1750,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B114" t="s">
@@ -1737,7 +1758,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B115" t="s">
@@ -1745,7 +1766,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B116" t="s">
@@ -1753,7 +1774,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B117" t="s">
@@ -1761,7 +1782,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B118" t="s">
@@ -1769,7 +1790,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B119" t="s">
@@ -1777,7 +1798,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B120" t="s">
@@ -1785,7 +1806,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B121" t="s">
@@ -1793,7 +1814,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B122" t="s">
@@ -1801,7 +1822,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B123" t="s">
@@ -1809,7 +1830,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B124" t="s">
@@ -1817,7 +1838,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B125" t="s">
@@ -1825,7 +1846,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B126" t="s">
@@ -1833,7 +1854,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B127" t="s">
@@ -1841,7 +1862,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B128" t="s">
@@ -1849,7 +1870,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B129" t="s">
@@ -1857,7 +1878,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B130" t="s">
@@ -1865,7 +1886,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B131" t="s">
@@ -1873,7 +1894,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B132" t="s">
@@ -1881,7 +1902,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B133" t="s">
@@ -1889,7 +1910,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B134" t="s">
@@ -1897,7 +1918,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B135" t="s">
@@ -1905,7 +1926,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B136" t="s">
@@ -1913,7 +1934,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B137" t="s">
@@ -1921,7 +1942,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -1936,2095 +1957,2876 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B260"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="C27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="C83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="C86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="C87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="C88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="C90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="C91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="C92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="C93" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="C94" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="C95" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="C96" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="C97" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="C98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="C100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="C101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="C102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="C103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="C104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="C105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="C106" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="C107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="C108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="C109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="C110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="C111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="C112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="C113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="C114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="C115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="C116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="C117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="C118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="C119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="C120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="C121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="C122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="C123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="C124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="C125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="C126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="C127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="C128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="C129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="C130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="C131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="C132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="C133" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="C134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="C135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="C136" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="C137" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="C138" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="C139" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="C140" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="C141" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="C142" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="C143" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="C144" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="C145" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="C146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="C147" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="C148" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="C149" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="C150" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="C152" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="C153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="C154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="C155" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="C156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="C157" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="C158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="C159" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="C160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="C161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="C162" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="C163" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="C164" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="C165" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="C166" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="C167" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="C168" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="C169" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="C170" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="C171" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="C172" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="C173" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="C174" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="C175" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="C176" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="C177" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="C178" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="C179" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="C180" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="C181" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="C182" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="C183" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+      <c r="C184" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="C185" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="C186" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="C187" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="C188" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+      <c r="C189" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="C190" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="C191" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="C192" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="C193" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="C194" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="C195" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+      <c r="C196" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="C197" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="C198" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="C199" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="C200" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="C201" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="C202" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="C203" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="C204" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="C205" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="C206" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="C207" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="C208" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="C209" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="C210" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="C211" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="C212" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="C213" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="C214" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="C215" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="C216" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="C217" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="C218" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="C219" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="C220" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="C221" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="C222" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="C223" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="C224" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="C225" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="C226" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="C227" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="C228" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="C229" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="C230" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="C231" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="C232" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="C233" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="C234" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="C235" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="C236" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="C237" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="C238" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="C239" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="C240" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+      <c r="C241" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="C242" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="C243" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="C244" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="C245" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="C246" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="C247" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="C248" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="C249" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+      <c r="C250" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+      <c r="C251" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+      <c r="C252" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+      <c r="C253" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+      <c r="C254" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="C255" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+      <c r="C256" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+      <c r="C257" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+      <c r="C258" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="C259" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="C260" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SantiagoRobayoGonzal\Documents\LOL\League_of_legends_Graph\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SantiagoRobayoGonzal\Documents\GitHub\League_of_legends_Graph\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B78C7452-937E-403A-98C3-05ED10EF183C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4559B1D-F9B5-4DEE-AA28-C49DF607B0A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="1" r:id="rId1"/>
     <sheet name="links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="166">
   <si>
     <t>Champion</t>
   </si>
@@ -503,6 +508,27 @@
   </si>
   <si>
     <t>Tham Kench</t>
+  </si>
+  <si>
+    <t>Sylas</t>
+  </si>
+  <si>
+    <t>Neeko</t>
+  </si>
+  <si>
+    <t>Yuumi</t>
+  </si>
+  <si>
+    <t>WebName</t>
+  </si>
+  <si>
+    <t>LeBlanc</t>
+  </si>
+  <si>
+    <t>Nunu</t>
+  </si>
+  <si>
+    <t>Img</t>
   </si>
 </sst>
 </file>
@@ -822,1149 +848,2190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("assets/",C2,".png")</f>
+        <v>assets/Aatrox.png</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">_xlfn.CONCAT("assets/",C3,".png")</f>
+        <v>assets/Ahri.png</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Akali.png</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Alistar.png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Amumu.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Anivia.png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Annie.png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Ashe.png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Aurelion Sol.png</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Azir.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Bard.png</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Blitzcrank.png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Brand.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Braum.png</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Caitlyn.png</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Camille.png</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Cassiopeia.png</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Cho'Gath.png</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Corki.png</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Darius.png</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Diana.png</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Dr. Mundo.png</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Draven.png</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Ekko.png</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Elise.png</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Evelynn.png</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Ezreal.png</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B29" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Fiddlesticks.png</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B30" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Fiora.png</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Fizz.png</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Galio.png</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Gangplank.png</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B34" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Garen.png</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Gnar.png</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B36" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Gragas.png</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B37" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Graves.png</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Hecarim.png</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Heimerdinger.png</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Illaoi.png</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B41" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Irelia.png</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Ivern.png</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Janna.png</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Jarvan IV.png</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Jax.png</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Jayce.png</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Jhin.png</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Jinx.png</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Kai'Sa.png</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Kalista.png</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B51" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Karma.png</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Karthus.png</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Kassadin.png</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Katarina.png</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Kayle.png</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B56" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Kayn.png</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B57" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Kennen.png</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Kha'Zix.png</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B59" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Kindred.png</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B60" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Kled.png</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Kog'Maw.png</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B62" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/LeBlanc.png</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B63" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Lee Sin.png</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Leona.png</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Lissandra.png</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B66" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>assets/Lucian.png</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B67" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="1">_xlfn.CONCAT("assets/",C67,".png")</f>
+        <v>assets/Lulu.png</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B68" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Lux.png</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B69" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Malphite.png</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B70" t="s">
         <v>54</v>
       </c>
+      <c r="C70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Malzahar.png</v>
+      </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Maokai.png</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B72" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Master Yi.png</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B73" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Miss Fortune.png</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B74" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Mordekaiser.png</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B75" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Morgana.png</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B76" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Nami.png</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Nasus.png</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B78" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Nautilus.png</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Neeko.png</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Nidalee.png</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Nocturne.png</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Nunu.png</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Olaf.png</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Orianna.png</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="C85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Ornn.png</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Pantheon.png</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Poppy.png</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="C88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Pyke.png</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="C89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Quinn.png</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+      <c r="C90" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Rakan.png</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+      <c r="C91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Rammus.png</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Rek'Sai.png</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Renekton.png</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+      <c r="C94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Rengar.png</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Riven.png</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+      <c r="C96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Rumble.png</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+      <c r="C97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Ryze.png</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Sejuani.png</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+      <c r="C99" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Shaco.png</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Shen.png</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+      <c r="C101" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Shyvana.png</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+      <c r="C102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Singed.png</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+      <c r="C103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Sion.png</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Sivir.png</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Skarner.png</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+      <c r="C106" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Sona.png</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+      <c r="C107" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Soraka.png</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="C108" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Swain.png</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Sylas.png</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+      <c r="C110" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Syndra.png</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="C111" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Tahm Kench.png</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="C112" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Taliyah.png</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="C113" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Talon.png</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+      <c r="C114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Taric.png</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B113" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="B115" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Teemo.png</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" t="s">
+        <v>110</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Thresh.png</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Tristana.png</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Trundle.png</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Tryndamere.png</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="C120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Twisted Fate.png</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B119" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="B121" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Twitch.png</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Udyr.png</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" t="s">
+        <v>101</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Urgot.png</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+      <c r="C124" t="s">
+        <v>151</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Varus.png</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B125" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+      <c r="C125" t="s">
+        <v>147</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Vayne.png</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B126" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+      <c r="C126" t="s">
+        <v>65</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Veigar.png</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Vel'Koz.png</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B128" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+      <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Vi.png</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B129" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="C129" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Viktor.png</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B130" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>assets/Vladimir.png</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+      <c r="C131" t="s">
+        <v>137</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D145" si="2">_xlfn.CONCAT("assets/",C131,".png")</f>
+        <v>assets/Volibear.png</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+      <c r="C132" t="s">
+        <v>58</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Warwick.png</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B133" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Wukong.png</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B134" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+      <c r="C134" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Xayah.png</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B135" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+      <c r="C135" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Xerath.png</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Xin Zhao.png</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B137" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+      <c r="C137" t="s">
+        <v>143</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Yasuo.png</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B138" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+      <c r="C138" t="s">
+        <v>109</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Yorick.png</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" t="s">
+        <v>161</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Yuumi.png</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B140" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+      <c r="C140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Zac.png</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B141" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Zed.png</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B142" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+      <c r="C142" t="s">
+        <v>113</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Ziggs.png</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B143" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+      <c r="C143" t="s">
+        <v>152</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Zilean.png</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B144" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+      <c r="C144" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Zoe.png</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B145" t="s">
         <v>94</v>
+      </c>
+      <c r="C145" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>assets/Zyra.png</v>
       </c>
     </row>
   </sheetData>
@@ -1977,13 +3044,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +3058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1999,7 +3066,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -2007,7 +3074,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -2015,7 +3082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2023,7 +3090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2031,7 +3098,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2039,7 +3106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2047,7 +3114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2055,7 +3122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2063,7 +3130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2071,7 +3138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2079,7 +3146,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2087,7 +3154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -2095,7 +3162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2103,7 +3170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2111,7 +3178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -2119,7 +3186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2127,7 +3194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2135,7 +3202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -2143,7 +3210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -2151,7 +3218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -2159,7 +3226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2167,7 +3234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -2175,7 +3242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -2183,7 +3250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -2191,7 +3258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -2199,7 +3266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -2207,7 +3274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
@@ -2215,7 +3282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2223,7 +3290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -2231,7 +3298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -2239,7 +3306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2247,7 +3314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2255,7 +3322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2263,7 +3330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2271,7 +3338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -2279,7 +3346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -2287,7 +3354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -2295,7 +3362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -2303,7 +3370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2311,7 +3378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2319,7 +3386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -2327,7 +3394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -2335,7 +3402,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -2343,7 +3410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2351,7 +3418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2359,7 +3426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -2367,7 +3434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
@@ -2375,7 +3442,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>35</v>
       </c>
@@ -2383,7 +3450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>35</v>
       </c>
@@ -2391,7 +3458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>35</v>
       </c>
@@ -2399,7 +3466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -2407,7 +3474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -2415,7 +3482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
@@ -2423,7 +3490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
@@ -2431,7 +3498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -2439,7 +3506,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
@@ -2447,7 +3514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -2455,7 +3522,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
@@ -2463,7 +3530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
@@ -2471,7 +3538,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
@@ -2479,7 +3546,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>57</v>
       </c>
@@ -2487,7 +3554,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>57</v>
       </c>
@@ -2495,7 +3562,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>26</v>
       </c>
@@ -2503,7 +3570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>26</v>
       </c>
@@ -2511,7 +3578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>26</v>
       </c>
@@ -2519,7 +3586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -2527,7 +3594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
@@ -2535,7 +3602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
@@ -2543,7 +3610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>51</v>
       </c>
@@ -2551,7 +3618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>51</v>
       </c>
@@ -2559,7 +3626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>51</v>
       </c>
@@ -2567,7 +3634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>51</v>
       </c>
@@ -2575,7 +3642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>51</v>
       </c>
@@ -2583,7 +3650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
@@ -2591,7 +3658,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>70</v>
       </c>
@@ -2599,7 +3666,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -2607,7 +3674,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
@@ -2615,7 +3682,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
@@ -2623,7 +3690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>48</v>
       </c>
@@ -2631,7 +3698,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>48</v>
       </c>
@@ -2639,7 +3706,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
@@ -2647,7 +3714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>77</v>
       </c>
@@ -2655,7 +3722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>78</v>
       </c>
@@ -2663,7 +3730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>78</v>
       </c>
@@ -2671,7 +3738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>78</v>
       </c>
@@ -2679,7 +3746,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>78</v>
       </c>
@@ -2687,7 +3754,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>80</v>
       </c>
@@ -2695,7 +3762,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
@@ -2703,7 +3770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>80</v>
       </c>
@@ -2711,7 +3778,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
@@ -2719,7 +3786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>90</v>
       </c>
@@ -2727,7 +3794,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>90</v>
       </c>
@@ -2735,7 +3802,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>90</v>
       </c>
@@ -2743,7 +3810,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>90</v>
       </c>
@@ -2751,7 +3818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>90</v>
       </c>
@@ -2759,7 +3826,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>91</v>
       </c>
@@ -2767,7 +3834,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>91</v>
       </c>
@@ -2775,7 +3842,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>91</v>
       </c>
@@ -2783,7 +3850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>91</v>
       </c>
@@ -2791,7 +3858,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>91</v>
       </c>
@@ -2799,7 +3866,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>91</v>
       </c>
@@ -2807,7 +3874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>87</v>
       </c>
@@ -2815,7 +3882,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>87</v>
       </c>
@@ -2823,7 +3890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>87</v>
       </c>
@@ -2831,7 +3898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>87</v>
       </c>
@@ -2839,7 +3906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>87</v>
       </c>
@@ -2847,7 +3914,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>87</v>
       </c>
@@ -2855,7 +3922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>87</v>
       </c>
@@ -2863,7 +3930,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>87</v>
       </c>
@@ -2871,7 +3938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -2879,7 +3946,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -2887,7 +3954,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -2895,7 +3962,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>22</v>
       </c>
@@ -2903,7 +3970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>22</v>
       </c>
@@ -2911,7 +3978,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>22</v>
       </c>
@@ -2919,7 +3986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>100</v>
       </c>
@@ -2927,7 +3994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>100</v>
       </c>
@@ -2935,7 +4002,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>105</v>
       </c>
@@ -2943,7 +4010,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>105</v>
       </c>
@@ -2951,7 +4018,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>105</v>
       </c>
@@ -2959,7 +4026,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>105</v>
       </c>
@@ -2967,7 +4034,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>105</v>
       </c>
@@ -2975,7 +4042,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>105</v>
       </c>
@@ -2983,7 +4050,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>105</v>
       </c>
@@ -2991,7 +4058,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>64</v>
       </c>
@@ -2999,7 +4066,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>64</v>
       </c>
@@ -3007,7 +4074,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>64</v>
       </c>
@@ -3015,7 +4082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>106</v>
       </c>
@@ -3023,7 +4090,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>107</v>
       </c>
@@ -3031,7 +4098,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>107</v>
       </c>
@@ -3039,7 +4106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>86</v>
       </c>
@@ -3047,7 +4114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>86</v>
       </c>
@@ -3055,7 +4122,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>86</v>
       </c>
@@ -3063,7 +4130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>86</v>
       </c>
@@ -3071,7 +4138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>86</v>
       </c>
@@ -3079,7 +4146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>86</v>
       </c>
@@ -3087,7 +4154,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>47</v>
       </c>
@@ -3095,7 +4162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>47</v>
       </c>
@@ -3103,7 +4170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>47</v>
       </c>
@@ -3111,7 +4178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>10</v>
       </c>
@@ -3119,7 +4186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>10</v>
       </c>
@@ -3127,7 +4194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>10</v>
       </c>
@@ -3135,7 +4202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>50</v>
       </c>
@@ -3143,7 +4210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>154</v>
       </c>
@@ -3151,7 +4218,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>111</v>
       </c>
@@ -3159,7 +4226,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>111</v>
       </c>
@@ -3167,7 +4234,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>111</v>
       </c>
@@ -3175,7 +4242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>115</v>
       </c>
@@ -3183,7 +4250,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>120</v>
       </c>
@@ -3191,7 +4258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>120</v>
       </c>
@@ -3199,7 +4266,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>120</v>
       </c>
@@ -3207,7 +4274,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>120</v>
       </c>
@@ -3215,7 +4282,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>120</v>
       </c>
@@ -3223,7 +4290,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>123</v>
       </c>
@@ -3231,7 +4298,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>59</v>
       </c>
@@ -3239,7 +4306,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>59</v>
       </c>
@@ -3247,7 +4314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>59</v>
       </c>
@@ -3255,7 +4322,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>96</v>
       </c>
@@ -3263,7 +4330,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>124</v>
       </c>
@@ -3271,7 +4338,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>124</v>
       </c>
@@ -3279,7 +4346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>124</v>
       </c>
@@ -3287,7 +4354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>125</v>
       </c>
@@ -3295,7 +4362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>125</v>
       </c>
@@ -3303,7 +4370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>62</v>
       </c>
@@ -3311,7 +4378,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>62</v>
       </c>
@@ -3319,7 +4386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>62</v>
       </c>
@@ -3327,7 +4394,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>122</v>
       </c>
@@ -3335,7 +4402,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>122</v>
       </c>
@@ -3343,7 +4410,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>61</v>
       </c>
@@ -3351,7 +4418,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>61</v>
       </c>
@@ -3359,7 +4426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>75</v>
       </c>
@@ -3367,7 +4434,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>121</v>
       </c>
@@ -3375,7 +4442,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>25</v>
       </c>
@@ -3383,7 +4450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>25</v>
       </c>
@@ -3391,7 +4458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>18</v>
       </c>
@@ -3399,7 +4466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>18</v>
       </c>
@@ -3407,7 +4474,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>18</v>
       </c>
@@ -3415,7 +4482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>18</v>
       </c>
@@ -3423,7 +4490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>18</v>
       </c>
@@ -3431,7 +4498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>112</v>
       </c>
@@ -3439,7 +4506,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>112</v>
       </c>
@@ -3447,7 +4514,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>112</v>
       </c>
@@ -3455,7 +4522,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>103</v>
       </c>
@@ -3463,7 +4530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>82</v>
       </c>
@@ -3471,7 +4538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>132</v>
       </c>
@@ -3479,7 +4546,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>132</v>
       </c>
@@ -3487,7 +4554,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>133</v>
       </c>
@@ -3495,7 +4562,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>133</v>
       </c>
@@ -3503,7 +4570,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>134</v>
       </c>
@@ -3511,7 +4578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>134</v>
       </c>
@@ -3519,7 +4586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>99</v>
       </c>
@@ -3527,7 +4594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>99</v>
       </c>
@@ -3535,7 +4602,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>99</v>
       </c>
@@ -3543,7 +4610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>88</v>
       </c>
@@ -3551,7 +4618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>30</v>
       </c>
@@ -3559,7 +4626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>30</v>
       </c>
@@ -3567,7 +4634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>30</v>
       </c>
@@ -3575,7 +4642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>30</v>
       </c>
@@ -3583,7 +4650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>30</v>
       </c>
@@ -3591,7 +4658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>89</v>
       </c>
@@ -3599,7 +4666,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>136</v>
       </c>
@@ -3607,7 +4674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>136</v>
       </c>
@@ -3615,7 +4682,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>83</v>
       </c>
@@ -3623,7 +4690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>156</v>
       </c>
@@ -3631,7 +4698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>131</v>
       </c>
@@ -3639,7 +4706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>131</v>
       </c>
@@ -3647,7 +4714,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>43</v>
       </c>
@@ -3655,7 +4722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>155</v>
       </c>
@@ -3663,7 +4730,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>155</v>
       </c>
@@ -3671,7 +4738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>28</v>
       </c>
@@ -3679,7 +4746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>95</v>
       </c>
@@ -3687,7 +4754,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>153</v>
       </c>
@@ -3695,7 +4762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>153</v>
       </c>
@@ -3703,7 +4770,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>102</v>
       </c>
@@ -3711,7 +4778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>138</v>
       </c>
@@ -3719,7 +4786,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>138</v>
       </c>
@@ -3727,7 +4794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>138</v>
       </c>
@@ -3735,7 +4802,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>141</v>
       </c>
@@ -3743,7 +4810,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>33</v>
       </c>
@@ -3751,7 +4818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>33</v>
       </c>
@@ -3759,7 +4826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>142</v>
       </c>
@@ -3767,7 +4834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>142</v>
       </c>
@@ -3775,7 +4842,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>114</v>
       </c>
@@ -3783,7 +4850,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>114</v>
       </c>
@@ -3791,7 +4858,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>114</v>
       </c>
@@ -3799,7 +4866,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>114</v>
       </c>
@@ -3807,7 +4874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>45</v>
       </c>
@@ -3815,7 +4882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>45</v>
       </c>
@@ -3823,7 +4890,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>45</v>
       </c>
@@ -3831,7 +4898,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>20</v>
       </c>
@@ -3839,7 +4906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>20</v>
       </c>
@@ -3847,7 +4914,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>20</v>
       </c>
@@ -3855,7 +4922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>20</v>
       </c>
@@ -3863,7 +4930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>8</v>
       </c>
@@ -3871,7 +4938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>97</v>
       </c>
@@ -3879,7 +4946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>73</v>
       </c>
@@ -3887,7 +4954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>73</v>
       </c>
@@ -3895,7 +4962,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>73</v>
       </c>
@@ -3903,7 +4970,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>98</v>
       </c>
@@ -3911,7 +4978,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>98</v>
       </c>
@@ -3919,7 +4986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>98</v>
       </c>
@@ -3927,7 +4994,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>98</v>
       </c>
@@ -3935,7 +5002,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>31</v>
       </c>
@@ -3943,7 +5010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>31</v>
       </c>
@@ -3951,7 +5018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>146</v>
       </c>
@@ -3959,7 +5026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>146</v>
       </c>
@@ -3967,7 +5034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>117</v>
       </c>
@@ -3975,7 +5042,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>67</v>
       </c>
@@ -3983,7 +5050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>116</v>
       </c>
@@ -3991,7 +5058,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>116</v>
       </c>
@@ -3999,7 +5066,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>158</v>
       </c>
@@ -4007,7 +5074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>158</v>
       </c>
@@ -4015,7 +5082,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>34</v>
       </c>
@@ -4023,7 +5090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>145</v>
       </c>
@@ -4031,7 +5098,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>145</v>
       </c>
@@ -4039,7 +5106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>110</v>
       </c>
@@ -4047,7 +5114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>23</v>
       </c>
@@ -4055,7 +5122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>149</v>
       </c>
@@ -4063,7 +5130,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>101</v>
       </c>
@@ -4071,7 +5138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>101</v>
       </c>
@@ -4079,7 +5146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>101</v>
       </c>
@@ -4087,7 +5154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>101</v>
       </c>
@@ -4095,7 +5162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>147</v>
       </c>
@@ -4103,7 +5170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>147</v>
       </c>
@@ -4111,7 +5178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>65</v>
       </c>
@@ -4119,7 +5186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>65</v>
       </c>
@@ -4127,7 +5194,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>63</v>
       </c>
@@ -4135,7 +5202,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>44</v>
       </c>
@@ -4143,7 +5210,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>137</v>
       </c>
@@ -4151,7 +5218,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>139</v>
       </c>
@@ -4159,7 +5226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>139</v>
       </c>
@@ -4167,7 +5234,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>143</v>
       </c>
@@ -4175,7 +5242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>157</v>
       </c>
@@ -4183,7 +5250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>157</v>
       </c>
